--- a/004_テーブル/テーブル定義.xlsx
+++ b/004_テーブル/テーブル定義.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="カラム一覧" sheetId="4" r:id="rId1"/>
     <sheet name="ユーザーマスタ" sheetId="10" r:id="rId2"/>
-    <sheet name="イベントヘッダテーブル" sheetId="9" r:id="rId3"/>
-    <sheet name="イベント明細テーブル" sheetId="20" r:id="rId4"/>
-    <sheet name="イベントユーザーテーブル" sheetId="21" r:id="rId5"/>
-    <sheet name="イベント通知テーブル" sheetId="22" r:id="rId6"/>
+    <sheet name="部署マスタ" sheetId="23" r:id="rId3"/>
+    <sheet name="分類マスタ" sheetId="24" r:id="rId4"/>
+    <sheet name="イベントヘッダテーブル" sheetId="9" r:id="rId5"/>
+    <sheet name="イベント候補日明細テーブル" sheetId="20" r:id="rId6"/>
+    <sheet name="イベントユーザ明細テーブル" sheetId="21" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
   <si>
     <t>カラム名</t>
     <rPh sb="3" eb="4">
@@ -109,13 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベント名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>イベントID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -146,10 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EVENT_NM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MEMO_TXT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -208,10 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベントのメインテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EVENTHEAD_TBL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -281,73 +267,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作成者</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成日時</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新者</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新日時</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EVENTDTL_TBL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベントの明細テーブル</t>
-    <rPh sb="5" eb="7">
-      <t>メイサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HHMM、明細テーブルにも持つが基本はヘッダテーブルから値コピー</t>
-    <rPh sb="5" eb="7">
-      <t>メイサイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>イベント回答区分</t>
     <rPh sb="4" eb="6">
       <t>カイトウ</t>
@@ -403,9 +322,6 @@
     <t>USER_MST</t>
   </si>
   <si>
-    <t>EVENTUSER_TBL</t>
-  </si>
-  <si>
     <t>メールアドレス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -422,21 +338,137 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EVENTTUTI_TBL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベントを通知する連絡先（ユーザー）をもつテーブル</t>
+    <t>件名</t>
+    <rPh sb="0" eb="2">
+      <t>ケンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幹事</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント内容</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KANJI_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KENMEI_TXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUNRUI_TXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答期限</t>
+    <rPh sb="0" eb="4">
+      <t>カイトウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KAITOKGN_YMD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント明細ID</t>
+    <rPh sb="4" eb="6">
+      <t>メイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EVENTDTL_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントのメインテーブル。イベント1つに1件。</t>
+    <rPh sb="21" eb="22">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EVENTCONT_TXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールの本文になる</t>
+    <rPh sb="4" eb="6">
+      <t>ホンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントの候補日の明細テーブル</t>
     <rPh sb="5" eb="7">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>レンラクサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー毎のイベント参加可否状況をもつテーブル　メモ入力時はイベント年月日にMEMOと編集（1イベントで1ユーザー毎に1レコード）</t>
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>メイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EVENTKOHODTL_TBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント明細ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EVENTUSERDTL_TBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントユーザ明細テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント候補日明細テーブル</t>
+    <rPh sb="4" eb="6">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントヘッダテーブル</t>
+  </si>
+  <si>
+    <t>HHMM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー毎のイベント参加可否状況をもつテーブル ※メモ入力時はイベント明細IDにデフォルト値編集（メモは1イベント1ユーザー毎に1レコード）</t>
     <rPh sb="4" eb="5">
       <t>ゴト</t>
     </rPh>
@@ -449,21 +481,122 @@
     <rPh sb="14" eb="16">
       <t>ジョウキョウ</t>
     </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="27" eb="29">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="28" eb="29">
+    <rPh sb="29" eb="30">
       <t>ジ</t>
     </rPh>
-    <rPh sb="34" eb="37">
-      <t>ネンガッピ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="35" eb="37">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
       <t>ヘンシュウ</t>
     </rPh>
-    <rPh sb="57" eb="58">
+    <rPh sb="62" eb="63">
       <t>ゴト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUSHO_MST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署ID</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署名</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUSHO_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUSHO_NM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUNRUI_MST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類ID</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類マスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタから選択</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUNRUI_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEL_FLG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空白：有効データ、1：削除データ</t>
+    <rPh sb="0" eb="2">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHAR</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -541,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -575,6 +708,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -591,99 +727,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1009650" y="2533650"/>
-          <a:ext cx="6276975" cy="1628775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>このマスタは既存テーブル</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ポジション区分のみ現状に無いはずなので、項目追加を行う</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -941,7 +984,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -949,11 +992,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -984,251 +1025,395 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="D2" s="6">
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="6">
         <v>6</v>
-      </c>
-      <c r="D3" s="6">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="D4" s="6">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="6">
-        <v>100</v>
+        <v>27</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="6">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="6">
-        <v>300</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="D9" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="D10" s="6">
-        <v>100</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="D11" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="6">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="D14" s="6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6">
-        <v>6</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>100</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="6">
+        <v>6</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6">
+        <v>100</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="6">
+        <v>8</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="6">
+        <v>6</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="6">
+        <v>14</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="C24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="6">
         <v>6</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="6">
         <v>14</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>44</v>
+      <c r="E25" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1422,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1"/>
+    <hyperlink ref="E15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1246,15 +1431,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J19"/>
+  <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="2"/>
+    <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
@@ -1267,12 +1450,20 @@
     <col min="11" max="16384" width="13.25" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
@@ -1282,13 +1473,13 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="3"/>
       <c r="J4" s="1" t="s">
         <v>11</v>
@@ -1329,7 +1520,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>VLOOKUP($B7,カラム一覧!$A:$E,2,FALSE)</f>
@@ -1337,7 +1528,7 @@
       </c>
       <c r="D7" s="2" t="str">
         <f>VLOOKUP($B7,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
+        <v>CHAR</v>
       </c>
       <c r="E7" s="2">
         <f>VLOOKUP($B7,カラム一覧!$A:$E,4,FALSE)</f>
@@ -1352,12 +1543,12 @@
       </c>
       <c r="J7" s="2" t="str">
         <f>C7 &amp; " " &amp; CHAR(9) &amp; D7 &amp; "(" &amp; E7 &amp; ")" &amp; IF(G7&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
-        <v>USER_ID 	VARCHAR(6)	 NOT NULL,</v>
+        <v>USER_ID 	CHAR(6)	 NOT NULL,</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>VLOOKUP($B8,カラム一覧!$A:$E,2,FALSE)</f>
@@ -1382,7 +1573,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>VLOOKUP($B9,カラム一覧!$A:$E,2,FALSE)</f>
@@ -1407,7 +1598,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>VLOOKUP($B10,カラム一覧!$A:$E,2,FALSE)</f>
@@ -1415,7 +1606,7 @@
       </c>
       <c r="D10" s="2" t="str">
         <f>VLOOKUP($B10,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
+        <v>CHAR</v>
       </c>
       <c r="E10" s="2">
         <f>VLOOKUP($B10,カラム一覧!$A:$E,4,FALSE)</f>
@@ -1427,42 +1618,67 @@
       </c>
       <c r="J10" s="2" t="str">
         <f>C10 &amp; " " &amp; CHAR(9) &amp; D10 &amp; "(" &amp; E10 &amp; ")" &amp; IF(G10&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
-        <v>POSITION_KBN 	VARCHAR(1),</v>
+        <v>POSITION_KBN 	CHAR(1),</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>VLOOKUP($B11,カラム一覧!$A:$E,2,FALSE)</f>
+        <v>BUSHO_ID</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>VLOOKUP($B11,カラム一覧!$A:$E,3,FALSE)</f>
+        <v>CHAR</v>
+      </c>
+      <c r="E11" s="2">
+        <f>VLOOKUP($B11,カラム一覧!$A:$E,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>IF(VLOOKUP($B11,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B11,カラム一覧!$A:$E,5,FALSE))</f>
+        <v/>
+      </c>
       <c r="J11" s="2" t="str">
+        <f>C11 &amp; " " &amp; CHAR(9) &amp; D11 &amp; "(" &amp; E11 &amp; ")" &amp; IF(G11&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
+        <v>BUSHO_ID 	CHAR(6),</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J12" s="2" t="str">
         <f>"CONSTRAINT PK_" &amp; $C$2 &amp; " PRIMARY_KEY(USER_ID)"</f>
         <v>CONSTRAINT PK_USER_MST PRIMARY_KEY(USER_ID)</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J12" s="2" t="str">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J13" s="2" t="str">
         <f>")"</f>
         <v>)</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J13" s="2" t="str">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J14" s="2" t="str">
         <f>"-- CREATE INDEX IDX_"&amp; $C$2 &amp; "_1 ON M_USER(FAMILY_NAME,FIRST_NAME)"</f>
         <v>-- CREATE INDEX IDX_USER_MST_1 ON M_USER(FAMILY_NAME,FIRST_NAME)</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J17" s="2" t="str">
-        <f>INDEX(A7:G101,2,3)</f>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J18" s="2" t="str">
+        <f>INDEX(A7:G26,2,3)</f>
         <v>USER_NM</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J18" s="2">
-        <f>MATCH(C7,C7:C10,0)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J19" s="2">
-        <f>IF(C8="","",MAX(H7:H10))</f>
+        <f>MATCH(C7,C7:C11,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J20" s="2">
+        <f>IF(C8="","",MAX(H7:H11))</f>
         <v>0</v>
       </c>
     </row>
@@ -1473,37 +1689,44 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J18"/>
+  <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="4.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="13.25" style="2"/>
+    <col min="10" max="10" width="14.625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="13.25" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
@@ -1513,13 +1736,14 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1527,7 +1751,7 @@
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J5" s="2" t="str">
         <f>"CREATE TABLE " &amp; $C$2</f>
-        <v>CREATE TABLE EVENTHEAD_TBL</v>
+        <v>CREATE TABLE BUSHO_MST</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
@@ -1547,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>12</v>
@@ -1559,39 +1783,39 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>VLOOKUP($B7,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>EVENT_ID</v>
+        <v>BUSHO_ID</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>VLOOKUP($B7,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>NUMBER</v>
+        <v>CHAR</v>
       </c>
       <c r="E7" s="2">
         <f>VLOOKUP($B7,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="str">
         <f>IF(VLOOKUP($B7,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B7,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>シーケンスで取得</v>
+        <v/>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" ref="J7:J12" si="0">C7 &amp; " " &amp; CHAR(9) &amp; D7 &amp; "(" &amp; E7 &amp; ")" &amp; IF(G7&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
-        <v>EVENT_ID 	NUMBER(27)	 NOT NULL,</v>
+        <f>C7 &amp; " " &amp; CHAR(9) &amp; D7 &amp; "(" &amp; E7 &amp; ")" &amp; IF(G7&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
+        <v>BUSHO_ID 	CHAR(6)	 NOT NULL,</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>VLOOKUP($B8,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>EVENT_NM</v>
+        <v>BUSHO_NM</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>VLOOKUP($B8,カラム一覧!$A:$E,3,FALSE)</f>
@@ -1606,201 +1830,26 @@
         <v/>
       </c>
       <c r="J8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>EVENT_NM 	VARCHAR(100),</v>
+        <f>C8 &amp; " " &amp; CHAR(9) &amp; D8 &amp; "(" &amp; E8 &amp; ")" &amp; IF(G8&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
+        <v>BUSHO_NM 	VARCHAR(100),</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f>VLOOKUP($B9,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>MEMO_TXT</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <f>VLOOKUP($B9,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E9" s="2">
-        <f>VLOOKUP($B9,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>300</v>
-      </c>
-      <c r="F9" s="2" t="str">
-        <f>IF(VLOOKUP($B9,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B9,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>自由入力</v>
-      </c>
       <c r="J9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MEMO_TXT 	VARCHAR(300),</v>
+        <f>"CONSTRAINT PK_" &amp; $C$2 &amp; " PRIMARY_KEY(USER_ID)"</f>
+        <v>CONSTRAINT PK_BUSHO_MST PRIMARY_KEY(USER_ID)</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <f>VLOOKUP($B10,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>ST_TIM</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f>VLOOKUP($B10,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E10" s="2">
-        <f>VLOOKUP($B10,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f>IF(VLOOKUP($B10,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B10,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>HHMM、明細テーブルにも持つが基本はヘッダテーブルから値コピー</v>
-      </c>
       <c r="J10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ST_TIM 	VARCHAR(4),</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <f>VLOOKUP($B11,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>END_TIM</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f>VLOOKUP($B11,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E11" s="2">
-        <f>VLOOKUP($B11,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="F11" s="2" t="str">
-        <f>IF(VLOOKUP($B11,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B11,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>HHMM、明細テーブルにも持つが基本はヘッダテーブルから値コピー</v>
-      </c>
-      <c r="J11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>END_TIM 	VARCHAR(4),</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f>VLOOKUP($B12,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>CRE_ID</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f>VLOOKUP($B12,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E12" s="2">
-        <f>VLOOKUP($B12,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="F12" s="2" t="str">
-        <f>IF(VLOOKUP($B12,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B12,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>G00007</v>
-      </c>
-      <c r="J12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CRE_ID 	VARCHAR(6),</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <f>VLOOKUP($B13,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>CRE_DAT</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f>VLOOKUP($B13,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E13" s="2">
-        <f>VLOOKUP($B13,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="str">
-        <f>IF(VLOOKUP($B13,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B13,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>YYYYMMDDHHMMSS</v>
-      </c>
-      <c r="J13" s="2" t="str">
-        <f t="shared" ref="J13:J15" si="1">C13 &amp; " " &amp; CHAR(9) &amp; D13 &amp; "(" &amp; E13 &amp; ")" &amp; IF(G13&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
-        <v>CRE_DAT 	VARCHAR(14),</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <f>VLOOKUP($B14,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>UPD_ID</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f>VLOOKUP($B14,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E14" s="2">
-        <f>VLOOKUP($B14,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f>IF(VLOOKUP($B14,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B14,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>G00007</v>
-      </c>
-      <c r="J14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>UPD_ID 	VARCHAR(6),</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f>VLOOKUP($B15,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>UPD_DAT</v>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f>VLOOKUP($B15,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E15" s="2">
-        <f>VLOOKUP($B15,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="str">
-        <f>IF(VLOOKUP($B15,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B15,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>YYYYMMDDHHMMSS</v>
-      </c>
-      <c r="J15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>UPD_DAT 	VARCHAR(14),</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J16" s="2" t="str">
-        <f>"CONSTRAINT PK_" &amp; $C$2 &amp; " PRIMARY_KEY(MANAGEMENT_USER_ID)"</f>
-        <v>CONSTRAINT PK_EVENTHEAD_TBL PRIMARY_KEY(MANAGEMENT_USER_ID)</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J17" s="2" t="str">
         <f>")"</f>
         <v>)</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J18" s="2" t="str">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J11" s="2" t="str">
         <f>"-- CREATE INDEX IDX_"&amp; $C$2 &amp; "_1 ON M_USER(FAMILY_NAME,FIRST_NAME)"</f>
-        <v>-- CREATE INDEX IDX_EVENTHEAD_TBL_1 ON M_USER(FAMILY_NAME,FIRST_NAME)</v>
+        <v>-- CREATE INDEX IDX_BUSHO_MST_1 ON M_USER(FAMILY_NAME,FIRST_NAME)</v>
       </c>
     </row>
   </sheetData>
@@ -1815,15 +1864,477 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J17"/>
+  <dimension ref="B1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="2"/>
+    <col min="10" max="10" width="14.625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="13.25" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J5" s="2" t="str">
+        <f>"CREATE TABLE " &amp; $C$2</f>
+        <v>CREATE TABLE BUNRUI_MST</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>"("</f>
+        <v>(</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>VLOOKUP($B7,カラム一覧!$A:$E,2,FALSE)</f>
+        <v>BUNRUI_ID</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>VLOOKUP($B7,カラム一覧!$A:$E,3,FALSE)</f>
+        <v>CHAR</v>
+      </c>
+      <c r="E7" s="2">
+        <f>VLOOKUP($B7,カラム一覧!$A:$E,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>IF(VLOOKUP($B7,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B7,カラム一覧!$A:$E,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>C7 &amp; " " &amp; CHAR(9) &amp; D7 &amp; "(" &amp; E7 &amp; ")" &amp; IF(G7&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
+        <v>BUNRUI_ID 	CHAR(6)	 NOT NULL,</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>VLOOKUP($B8,カラム一覧!$A:$E,2,FALSE)</f>
+        <v>BUNRUI_ID</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>VLOOKUP($B8,カラム一覧!$A:$E,3,FALSE)</f>
+        <v>CHAR</v>
+      </c>
+      <c r="E8" s="2">
+        <f>VLOOKUP($B8,カラム一覧!$A:$E,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>IF(VLOOKUP($B8,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B8,カラム一覧!$A:$E,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f>C8 &amp; " " &amp; CHAR(9) &amp; D8 &amp; "(" &amp; E8 &amp; ")" &amp; IF(G8&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
+        <v>BUNRUI_ID 	CHAR(6),</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J9" s="2" t="str">
+        <f>"CONSTRAINT PK_" &amp; $C$2 &amp; " PRIMARY_KEY(USER_ID)"</f>
+        <v>CONSTRAINT PK_BUNRUI_MST PRIMARY_KEY(USER_ID)</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J10" s="2" t="str">
+        <f>")"</f>
+        <v>)</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J11" s="2" t="str">
+        <f>"-- CREATE INDEX IDX_"&amp; $C$2 &amp; "_1 ON M_USER(FAMILY_NAME,FIRST_NAME)"</f>
+        <v>-- CREATE INDEX IDX_BUNRUI_MST_1 ON M_USER(FAMILY_NAME,FIRST_NAME)</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="4.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J5" s="2" t="str">
+        <f>"CREATE TABLE " &amp; $C$2</f>
+        <v>CREATE TABLE EVENTHEAD_TBL</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>"("</f>
+        <v>(</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>VLOOKUP($B7,カラム一覧!$A:$E,2,FALSE)</f>
+        <v>EVENT_ID</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>VLOOKUP($B7,カラム一覧!$A:$E,3,FALSE)</f>
+        <v>NUMBER</v>
+      </c>
+      <c r="E7" s="2">
+        <f>VLOOKUP($B7,カラム一覧!$A:$E,4,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>IF(VLOOKUP($B7,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B7,カラム一覧!$A:$E,5,FALSE))</f>
+        <v>シーケンスで取得</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" ref="J7:J13" si="0">C7 &amp; " " &amp; CHAR(9) &amp; D7 &amp; "(" &amp; E7 &amp; ")" &amp; IF(G7&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
+        <v>EVENT_ID 	NUMBER(27)	 NOT NULL,</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>VLOOKUP($B8,カラム一覧!$A:$E,2,FALSE)</f>
+        <v>KENMEI_TXT</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>VLOOKUP($B8,カラム一覧!$A:$E,3,FALSE)</f>
+        <v>VARCHAR</v>
+      </c>
+      <c r="E8" s="2">
+        <f>VLOOKUP($B8,カラム一覧!$A:$E,4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>IF(VLOOKUP($B8,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B8,カラム一覧!$A:$E,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>KENMEI_TXT 	VARCHAR(100),</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>VLOOKUP($B9,カラム一覧!$A:$E,2,FALSE)</f>
+        <v>BUNRUI_ID</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>VLOOKUP($B9,カラム一覧!$A:$E,3,FALSE)</f>
+        <v>CHAR</v>
+      </c>
+      <c r="E9" s="2">
+        <f>VLOOKUP($B9,カラム一覧!$A:$E,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>IF(VLOOKUP($B9,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B9,カラム一覧!$A:$E,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BUNRUI_ID 	CHAR(6),</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>VLOOKUP($B10,カラム一覧!$A:$E,2,FALSE)</f>
+        <v>KANJI_ID</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>VLOOKUP($B10,カラム一覧!$A:$E,3,FALSE)</f>
+        <v>CHAR</v>
+      </c>
+      <c r="E10" s="2">
+        <f>VLOOKUP($B10,カラム一覧!$A:$E,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>IF(VLOOKUP($B10,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B10,カラム一覧!$A:$E,5,FALSE))</f>
+        <v>G00007</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>KANJI_ID 	CHAR(6),</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>VLOOKUP($B11,カラム一覧!$A:$E,2,FALSE)</f>
+        <v>KAITOKGN_YMD</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>VLOOKUP($B11,カラム一覧!$A:$E,3,FALSE)</f>
+        <v>CHAR</v>
+      </c>
+      <c r="E11" s="2">
+        <f>VLOOKUP($B11,カラム一覧!$A:$E,4,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>IF(VLOOKUP($B11,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B11,カラム一覧!$A:$E,5,FALSE))</f>
+        <v>YYYYMMDD</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f t="shared" ref="J11" si="1">C11 &amp; " " &amp; CHAR(9) &amp; D11 &amp; "(" &amp; E11 &amp; ")" &amp; IF(G11&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
+        <v>KAITOKGN_YMD 	CHAR(8),</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>VLOOKUP($B12,カラム一覧!$A:$E,2,FALSE)</f>
+        <v>EVENTCONT_TXT</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>VLOOKUP($B12,カラム一覧!$A:$E,3,FALSE)</f>
+        <v>VARCHAR</v>
+      </c>
+      <c r="E12" s="2">
+        <f>VLOOKUP($B12,カラム一覧!$A:$E,4,FALSE)</f>
+        <v>300</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f>IF(VLOOKUP($B12,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B12,カラム一覧!$A:$E,5,FALSE))</f>
+        <v>メールの本文になる</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVENTCONT_TXT 	VARCHAR(300),</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>VLOOKUP($B13,カラム一覧!$A:$E,2,FALSE)</f>
+        <v>DEL_FLG</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>VLOOKUP($B13,カラム一覧!$A:$E,3,FALSE)</f>
+        <v>CHAR</v>
+      </c>
+      <c r="E13" s="2">
+        <f>VLOOKUP($B13,カラム一覧!$A:$E,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f>IF(VLOOKUP($B13,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B13,カラム一覧!$A:$E,5,FALSE))</f>
+        <v>空白：有効データ、1：削除データ</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>DEL_FLG 	CHAR(1),</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J14" s="2" t="str">
+        <f>"CONSTRAINT PK_" &amp; $C$2 &amp; " PRIMARY_KEY(MANAGEMENT_USER_ID)"</f>
+        <v>CONSTRAINT PK_EVENTHEAD_TBL PRIMARY_KEY(MANAGEMENT_USER_ID)</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J15" s="2" t="str">
+        <f>")"</f>
+        <v>)</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J16" s="2" t="str">
+        <f>"-- CREATE INDEX IDX_"&amp; $C$2 &amp; "_1 ON M_USER(FAMILY_NAME,FIRST_NAME)"</f>
+        <v>-- CREATE INDEX IDX_EVENTHEAD_TBL_1 ON M_USER(FAMILY_NAME,FIRST_NAME)</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
@@ -1834,12 +2345,20 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
@@ -1849,13 +2368,13 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1863,7 +2382,7 @@
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J5" s="2" t="str">
         <f>"CREATE TABLE " &amp; $C$2</f>
-        <v>CREATE TABLE EVENTDTL_TBL</v>
+        <v>CREATE TABLE EVENTKOHODTL_TBL</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
@@ -1895,7 +2414,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>VLOOKUP($B7,カラム一覧!$A:$E,2,FALSE)</f>
@@ -1917,74 +2436,74 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" ref="J7:J14" si="0">C7 &amp; " " &amp; CHAR(9) &amp; D7 &amp; "(" &amp; E7 &amp; ")" &amp; IF(G7&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
+        <f t="shared" ref="J7:J11" si="0">C7 &amp; " " &amp; CHAR(9) &amp; D7 &amp; "(" &amp; E7 &amp; ")" &amp; IF(G7&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
         <v>EVENT_ID 	NUMBER(27)	 NOT NULL,</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>VLOOKUP($B8,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>EVENT_YMD</v>
+        <v>EVENTDTL_ID</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>VLOOKUP($B8,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
+        <v>NUMBER</v>
       </c>
       <c r="E8" s="2">
         <f>VLOOKUP($B8,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="str">
         <f>IF(VLOOKUP($B8,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B8,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>YYYYMMDD</v>
+        <v>シーケンスで取得</v>
       </c>
       <c r="G8" s="2">
         <v>2</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>EVENT_YMD 	VARCHAR(8)	 NOT NULL,</v>
+        <f t="shared" ref="J8" si="1">C8 &amp; " " &amp; CHAR(9) &amp; D8 &amp; "(" &amp; E8 &amp; ")" &amp; IF(G8&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
+        <v>EVENTDTL_ID 	NUMBER(27)	 NOT NULL,</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>VLOOKUP($B9,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>ST_TIM</v>
+        <v>EVENT_YMD</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>VLOOKUP($B9,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
+        <v>CHAR</v>
       </c>
       <c r="E9" s="2">
         <f>VLOOKUP($B9,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="str">
         <f>IF(VLOOKUP($B9,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B9,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>HHMM、明細テーブルにも持つが基本はヘッダテーブルから値コピー</v>
+        <v>YYYYMMDD</v>
       </c>
       <c r="J9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>ST_TIM 	VARCHAR(4),</v>
+        <v>EVENT_YMD 	CHAR(8),</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>VLOOKUP($B10,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>END_TIM</v>
+        <v>ST_TIM</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>VLOOKUP($B10,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
+        <v>CHAR</v>
       </c>
       <c r="E10" s="2">
         <f>VLOOKUP($B10,カラム一覧!$A:$E,4,FALSE)</f>
@@ -1992,129 +2511,54 @@
       </c>
       <c r="F10" s="2" t="str">
         <f>IF(VLOOKUP($B10,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B10,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>HHMM、明細テーブルにも持つが基本はヘッダテーブルから値コピー</v>
+        <v>HHMM</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>END_TIM 	VARCHAR(4),</v>
+        <v>ST_TIM 	CHAR(4),</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>VLOOKUP($B11,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>CRE_ID</v>
+        <v>END_TIM</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>VLOOKUP($B11,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
+        <v>CHAR</v>
       </c>
       <c r="E11" s="2">
         <f>VLOOKUP($B11,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>IF(VLOOKUP($B11,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B11,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>G00007</v>
+        <v>HHMM</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CRE_ID 	VARCHAR(6),</v>
+        <v>END_TIM 	CHAR(4),</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f>VLOOKUP($B12,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>CRE_DAT</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f>VLOOKUP($B12,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E12" s="2">
-        <f>VLOOKUP($B12,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="str">
-        <f>IF(VLOOKUP($B12,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B12,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>YYYYMMDDHHMMSS</v>
-      </c>
       <c r="J12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CRE_DAT 	VARCHAR(14),</v>
+        <f>"CONSTRAINT PK_" &amp; $C$2 &amp; " PRIMARY_KEY(MANAGEMENT_USER_ID)"</f>
+        <v>CONSTRAINT PK_EVENTKOHODTL_TBL PRIMARY_KEY(MANAGEMENT_USER_ID)</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <f>VLOOKUP($B13,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>UPD_ID</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f>VLOOKUP($B13,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E13" s="2">
-        <f>VLOOKUP($B13,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="F13" s="2" t="str">
-        <f>IF(VLOOKUP($B13,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B13,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>G00007</v>
-      </c>
       <c r="J13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UPD_ID 	VARCHAR(6),</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <f>VLOOKUP($B14,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>UPD_DAT</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f>VLOOKUP($B14,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E14" s="2">
-        <f>VLOOKUP($B14,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f>IF(VLOOKUP($B14,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B14,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>YYYYMMDDHHMMSS</v>
-      </c>
-      <c r="J14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UPD_DAT 	VARCHAR(14),</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J15" s="2" t="str">
-        <f>"CONSTRAINT PK_" &amp; $C$2 &amp; " PRIMARY_KEY(MANAGEMENT_USER_ID)"</f>
-        <v>CONSTRAINT PK_EVENTDTL_TBL PRIMARY_KEY(MANAGEMENT_USER_ID)</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J16" s="2" t="str">
         <f>")"</f>
         <v>)</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J17" s="2" t="str">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J14" s="2" t="str">
         <f>"-- CREATE INDEX IDX_"&amp; $C$2 &amp; "_1 ON M_USER(FAMILY_NAME,FIRST_NAME)"</f>
-        <v>-- CREATE INDEX IDX_EVENTDTL_TBL_1 ON M_USER(FAMILY_NAME,FIRST_NAME)</v>
+        <v>-- CREATE INDEX IDX_EVENTKOHODTL_TBL_1 ON M_USER(FAMILY_NAME,FIRST_NAME)</v>
       </c>
     </row>
   </sheetData>
@@ -2127,17 +2571,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J18"/>
+  <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
@@ -2149,12 +2591,20 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
@@ -2164,13 +2614,13 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2178,7 +2628,7 @@
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J5" s="2" t="str">
         <f>"CREATE TABLE " &amp; $C$2</f>
-        <v>CREATE TABLE EVENTUSER_TBL</v>
+        <v>CREATE TABLE EVENTUSERDTL_TBL</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
@@ -2210,7 +2660,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>VLOOKUP($B7,カラム一覧!$A:$E,2,FALSE)</f>
@@ -2232,41 +2682,41 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" ref="J7:J15" si="0">C7 &amp; " " &amp; CHAR(9) &amp; D7 &amp; "(" &amp; E7 &amp; ")" &amp; IF(G7&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
+        <f t="shared" ref="J7:J11" si="0">C7 &amp; " " &amp; CHAR(9) &amp; D7 &amp; "(" &amp; E7 &amp; ")" &amp; IF(G7&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
         <v>EVENT_ID 	NUMBER(27)	 NOT NULL,</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>VLOOKUP($B8,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>EVENT_YMD</v>
+        <v>EVENTDTL_ID</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>VLOOKUP($B8,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
+        <v>NUMBER</v>
       </c>
       <c r="E8" s="2">
         <f>VLOOKUP($B8,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="str">
         <f>IF(VLOOKUP($B8,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B8,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>YYYYMMDD</v>
+        <v>シーケンスで取得</v>
       </c>
       <c r="G8" s="2">
         <v>2</v>
       </c>
       <c r="J8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>EVENT_YMD 	VARCHAR(8)	 NOT NULL,</v>
+        <v>EVENTDTL_ID 	NUMBER(27)	 NOT NULL,</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>VLOOKUP($B9,カラム一覧!$A:$E,2,FALSE)</f>
@@ -2274,7 +2724,7 @@
       </c>
       <c r="D9" s="2" t="str">
         <f>VLOOKUP($B9,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
+        <v>CHAR</v>
       </c>
       <c r="E9" s="2">
         <f>VLOOKUP($B9,カラム一覧!$A:$E,4,FALSE)</f>
@@ -2289,12 +2739,12 @@
       </c>
       <c r="J9" s="2" t="str">
         <f t="shared" ref="J9:J10" si="1">C9 &amp; " " &amp; CHAR(9) &amp; D9 &amp; "(" &amp; E9 &amp; ")" &amp; IF(G9&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
-        <v>USER_ID 	VARCHAR(6)	 NOT NULL,</v>
+        <v>USER_ID 	CHAR(6)	 NOT NULL,</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>VLOOKUP($B10,カラム一覧!$A:$E,2,FALSE)</f>
@@ -2319,7 +2769,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>VLOOKUP($B11,カラム一覧!$A:$E,2,FALSE)</f>
@@ -2327,7 +2777,7 @@
       </c>
       <c r="D11" s="2" t="str">
         <f>VLOOKUP($B11,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
+        <v>CHAR</v>
       </c>
       <c r="E11" s="2">
         <f>VLOOKUP($B11,カラム一覧!$A:$E,4,FALSE)</f>
@@ -2339,390 +2789,25 @@
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>EVENTKAITO_KBN 	VARCHAR(1),</v>
+        <v>EVENTKAITO_KBN 	CHAR(1),</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f>VLOOKUP($B12,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>CRE_ID</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f>VLOOKUP($B12,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E12" s="2">
-        <f>VLOOKUP($B12,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="F12" s="2" t="str">
-        <f>IF(VLOOKUP($B12,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B12,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>G00007</v>
-      </c>
       <c r="J12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CRE_ID 	VARCHAR(6),</v>
+        <f>"CONSTRAINT PK_" &amp; $C$2 &amp; " PRIMARY_KEY(MANAGEMENT_USER_ID)"</f>
+        <v>CONSTRAINT PK_EVENTUSERDTL_TBL PRIMARY_KEY(MANAGEMENT_USER_ID)</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <f>VLOOKUP($B13,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>CRE_DAT</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f>VLOOKUP($B13,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E13" s="2">
-        <f>VLOOKUP($B13,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="str">
-        <f>IF(VLOOKUP($B13,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B13,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>YYYYMMDDHHMMSS</v>
-      </c>
       <c r="J13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CRE_DAT 	VARCHAR(14),</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <f>VLOOKUP($B14,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>UPD_ID</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f>VLOOKUP($B14,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E14" s="2">
-        <f>VLOOKUP($B14,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f>IF(VLOOKUP($B14,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B14,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>G00007</v>
-      </c>
-      <c r="J14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UPD_ID 	VARCHAR(6),</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f>VLOOKUP($B15,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>UPD_DAT</v>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f>VLOOKUP($B15,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E15" s="2">
-        <f>VLOOKUP($B15,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="str">
-        <f>IF(VLOOKUP($B15,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B15,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>YYYYMMDDHHMMSS</v>
-      </c>
-      <c r="J15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UPD_DAT 	VARCHAR(14),</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J16" s="2" t="str">
-        <f>"CONSTRAINT PK_" &amp; $C$2 &amp; " PRIMARY_KEY(MANAGEMENT_USER_ID)"</f>
-        <v>CONSTRAINT PK_EVENTUSER_TBL PRIMARY_KEY(MANAGEMENT_USER_ID)</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J17" s="2" t="str">
         <f>")"</f>
         <v>)</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J18" s="2" t="str">
-        <f>"-- CREATE INDEX IDX_"&amp; $C$2 &amp; "_1 ON M_USER(FAMILY_NAME,FIRST_NAME)"</f>
-        <v>-- CREATE INDEX IDX_EVENTUSER_TBL_1 ON M_USER(FAMILY_NAME,FIRST_NAME)</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C4:G4"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J5" s="2" t="str">
-        <f>"CREATE TABLE " &amp; $C$2</f>
-        <v>CREATE TABLE EVENTTUTI_TBL</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="2" t="str">
-        <f>"("</f>
-        <v>(</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f>VLOOKUP($B7,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>EVENT_ID</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f>VLOOKUP($B7,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>NUMBER</v>
-      </c>
-      <c r="E7" s="2">
-        <f>VLOOKUP($B7,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f>IF(VLOOKUP($B7,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B7,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>シーケンスで取得</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="str">
-        <f t="shared" ref="J7:J12" si="0">C7 &amp; " " &amp; CHAR(9) &amp; D7 &amp; "(" &amp; E7 &amp; ")" &amp; IF(G7&lt;&gt;"",CHAR(9) &amp; " NOT NULL","") &amp;","</f>
-        <v>EVENT_ID 	NUMBER(27)	 NOT NULL,</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f>VLOOKUP($B8,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>USER_ID</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f>VLOOKUP($B8,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E8" s="2">
-        <f>VLOOKUP($B8,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f>IF(VLOOKUP($B8,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B8,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>G00007</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>USER_ID 	VARCHAR(6)	 NOT NULL,</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f>VLOOKUP($B9,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>CRE_ID</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <f>VLOOKUP($B9,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E9" s="2">
-        <f>VLOOKUP($B9,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="str">
-        <f>IF(VLOOKUP($B9,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B9,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>G00007</v>
-      </c>
-      <c r="J9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CRE_ID 	VARCHAR(6),</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <f>VLOOKUP($B10,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>CRE_DAT</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f>VLOOKUP($B10,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E10" s="2">
-        <f>VLOOKUP($B10,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f>IF(VLOOKUP($B10,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B10,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>YYYYMMDDHHMMSS</v>
-      </c>
-      <c r="J10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CRE_DAT 	VARCHAR(14),</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <f>VLOOKUP($B11,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>UPD_ID</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f>VLOOKUP($B11,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E11" s="2">
-        <f>VLOOKUP($B11,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="F11" s="2" t="str">
-        <f>IF(VLOOKUP($B11,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B11,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>G00007</v>
-      </c>
-      <c r="J11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UPD_ID 	VARCHAR(6),</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f>VLOOKUP($B12,カラム一覧!$A:$E,2,FALSE)</f>
-        <v>UPD_DAT</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f>VLOOKUP($B12,カラム一覧!$A:$E,3,FALSE)</f>
-        <v>VARCHAR</v>
-      </c>
-      <c r="E12" s="2">
-        <f>VLOOKUP($B12,カラム一覧!$A:$E,4,FALSE)</f>
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="str">
-        <f>IF(VLOOKUP($B12,カラム一覧!$A:$E,5,FALSE) = 0,"",VLOOKUP($B12,カラム一覧!$A:$E,5,FALSE))</f>
-        <v>YYYYMMDDHHMMSS</v>
-      </c>
-      <c r="J12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UPD_DAT 	VARCHAR(14),</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J13" s="2" t="str">
-        <f>"CONSTRAINT PK_" &amp; $C$2 &amp; " PRIMARY_KEY(MANAGEMENT_USER_ID)"</f>
-        <v>CONSTRAINT PK_EVENTTUTI_TBL PRIMARY_KEY(MANAGEMENT_USER_ID)</v>
-      </c>
-    </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J14" s="2" t="str">
-        <f>")"</f>
-        <v>)</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J15" s="2" t="str">
         <f>"-- CREATE INDEX IDX_"&amp; $C$2 &amp; "_1 ON M_USER(FAMILY_NAME,FIRST_NAME)"</f>
-        <v>-- CREATE INDEX IDX_EVENTTUTI_TBL_1 ON M_USER(FAMILY_NAME,FIRST_NAME)</v>
+        <v>-- CREATE INDEX IDX_EVENTUSERDTL_TBL_1 ON M_USER(FAMILY_NAME,FIRST_NAME)</v>
       </c>
     </row>
   </sheetData>
